--- a/tests/for_fuker.extract/test1.xlsx
+++ b/tests/for_fuker.extract/test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12930" windowHeight="6820"/>
+    <workbookView windowWidth="18520" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <t>序号</t>
   </si>
   <si>
-    <t>院校</t>
+    <t>性别</t>
   </si>
   <si>
-    <t>单位</t>
+    <t>类别</t>
   </si>
 </sst>
 </file>
@@ -975,7 +975,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
